--- a/P4/ejercicio10.xlsx
+++ b/P4/ejercicio10.xlsx
@@ -191,7 +191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -391,21 +391,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -478,13 +469,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral 2" xfId="1"/>
@@ -783,7 +773,7 @@
   <dimension ref="A1:AZ21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -960,7 +950,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="39" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="13" t="s">
@@ -969,7 +959,7 @@
       <c r="G2" s="17">
         <v>2</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="33"/>
@@ -1031,7 +1021,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="39" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="32"/>
@@ -1045,7 +1035,7 @@
       <c r="J3" s="18">
         <v>3</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="38" t="s">
         <v>28</v>
       </c>
       <c r="L3" s="33"/>
@@ -1059,10 +1049,10 @@
       <c r="R3" s="18">
         <v>5</v>
       </c>
-      <c r="S3" s="39" t="s">
+      <c r="S3" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="39" t="s">
+      <c r="T3" s="38" t="s">
         <v>28</v>
       </c>
       <c r="U3" s="33"/>
@@ -1179,7 +1169,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="39" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="32"/>
@@ -1188,7 +1178,7 @@
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
       <c r="K5" s="33"/>
-      <c r="L5" s="42" t="s">
+      <c r="L5" s="40" t="s">
         <v>8</v>
       </c>
       <c r="M5" s="33"/>
@@ -1200,10 +1190,10 @@
       <c r="S5" s="20">
         <v>1</v>
       </c>
-      <c r="T5" s="39" t="s">
+      <c r="T5" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="U5" s="39" t="s">
+      <c r="U5" s="38" t="s">
         <v>29</v>
       </c>
       <c r="V5" s="33"/>
@@ -1213,7 +1203,7 @@
       <c r="X5" s="20">
         <v>3</v>
       </c>
-      <c r="Y5" s="39" t="s">
+      <c r="Y5" s="38" t="s">
         <v>29</v>
       </c>
       <c r="Z5" s="20">
@@ -1397,16 +1387,16 @@
       <c r="D8" s="1"/>
       <c r="F8" s="6"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1">
+      <c r="H8" s="8">
         <v>1</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1">
+      <c r="K8" s="8">
         <v>3</v>
       </c>
       <c r="L8" s="8"/>
-      <c r="M8" s="1">
+      <c r="M8" s="8">
         <v>2</v>
       </c>
       <c r="N8" s="1"/>
@@ -1467,11 +1457,11 @@
       <c r="H9" s="1"/>
       <c r="I9" s="8"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1">
+      <c r="K9" s="8">
         <v>2</v>
       </c>
       <c r="L9" s="8"/>
-      <c r="M9" s="38">
+      <c r="M9" s="33">
         <v>4</v>
       </c>
       <c r="N9" s="1"/>
@@ -1528,7 +1518,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="8"/>
-      <c r="M10" s="1"/>
+      <c r="M10" s="8"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>

--- a/P4/ejercicio10.xlsx
+++ b/P4/ejercicio10.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="31">
   <si>
     <t>Proceso</t>
   </si>
@@ -63,13 +63,7 @@
     <t>2(FIN)</t>
   </si>
   <si>
-    <t>PRIORIDAD</t>
-  </si>
-  <si>
     <t>Qeue</t>
-  </si>
-  <si>
-    <t>APROPIATIVA</t>
   </si>
   <si>
     <t>PROCESO</t>
@@ -106,6 +100,15 @@
   </si>
   <si>
     <t>R3</t>
+  </si>
+  <si>
+    <t>FCFS</t>
+  </si>
+  <si>
+    <t>RR TV</t>
+  </si>
+  <si>
+    <t>Q=2</t>
   </si>
 </sst>
 </file>
@@ -191,7 +194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -391,12 +394,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -475,6 +491,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral 2" xfId="1"/>
@@ -770,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AZ21"/>
+  <dimension ref="A1:AZ48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -795,7 +818,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F1" s="2">
         <v>0</v>
@@ -951,7 +974,7 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>5</v>
@@ -960,7 +983,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I2" s="33"/>
       <c r="J2" s="33"/>
@@ -1022,7 +1045,7 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F3" s="32"/>
       <c r="G3" s="33"/>
@@ -1036,7 +1059,7 @@
         <v>3</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L3" s="33"/>
       <c r="M3" s="33"/>
@@ -1050,10 +1073,10 @@
         <v>5</v>
       </c>
       <c r="S3" s="38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="T3" s="38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="U3" s="33"/>
       <c r="V3" s="18" t="s">
@@ -1170,7 +1193,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="39" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="33"/>
@@ -1191,10 +1214,10 @@
         <v>1</v>
       </c>
       <c r="T5" s="38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U5" s="38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V5" s="33"/>
       <c r="W5" s="20">
@@ -1204,7 +1227,7 @@
         <v>3</v>
       </c>
       <c r="Y5" s="38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Z5" s="20">
         <v>4</v>
@@ -1306,12 +1329,12 @@
     </row>
     <row r="7" spans="1:52">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="36"/>
       <c r="F7" s="34">
@@ -1379,9 +1402,7 @@
       <c r="AZ7" s="33"/>
     </row>
     <row r="8" spans="1:52">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1720,19 +1741,19 @@
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="D14" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="E14" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -1903,7 +1924,7 @@
       <c r="AX16" s="1"/>
       <c r="AY16" s="1"/>
     </row>
-    <row r="17" spans="1:51" ht="15.75" thickBot="1">
+    <row r="17" spans="1:52" ht="15.75" thickBot="1">
       <c r="A17" s="28" t="s">
         <v>10</v>
       </c>
@@ -1962,7 +1983,7 @@
       <c r="AX17" s="1"/>
       <c r="AY17" s="1"/>
     </row>
-    <row r="18" spans="1:51">
+    <row r="18" spans="1:52">
       <c r="A18" s="29" t="s">
         <v>11</v>
       </c>
@@ -2021,7 +2042,7 @@
       <c r="AX18" s="1"/>
       <c r="AY18" s="1"/>
     </row>
-    <row r="19" spans="1:51" ht="15.75" thickBot="1">
+    <row r="19" spans="1:52" ht="15.75" thickBot="1">
       <c r="A19" s="26" t="s">
         <v>13</v>
       </c>
@@ -2080,7 +2101,7 @@
       <c r="AX19" s="1"/>
       <c r="AY19" s="1"/>
     </row>
-    <row r="20" spans="1:51">
+    <row r="20" spans="1:52">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2133,7 +2154,7 @@
       <c r="AX20" s="1"/>
       <c r="AY20" s="1"/>
     </row>
-    <row r="21" spans="1:51">
+    <row r="21" spans="1:52">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2186,6 +2207,1311 @@
       <c r="AX21" s="1"/>
       <c r="AY21" s="1"/>
     </row>
+    <row r="30" spans="1:52">
+      <c r="A30" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="36">
+        <v>0</v>
+      </c>
+      <c r="G30" s="14">
+        <v>1</v>
+      </c>
+      <c r="H30" s="15">
+        <v>2</v>
+      </c>
+      <c r="I30" s="15">
+        <v>3</v>
+      </c>
+      <c r="J30" s="15">
+        <v>4</v>
+      </c>
+      <c r="K30" s="15">
+        <v>5</v>
+      </c>
+      <c r="L30" s="15">
+        <v>6</v>
+      </c>
+      <c r="M30" s="36">
+        <v>7</v>
+      </c>
+      <c r="N30" s="15">
+        <v>8</v>
+      </c>
+      <c r="O30" s="15">
+        <v>9</v>
+      </c>
+      <c r="P30" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="15">
+        <v>11</v>
+      </c>
+      <c r="R30" s="15">
+        <v>12</v>
+      </c>
+      <c r="S30" s="15">
+        <v>13</v>
+      </c>
+      <c r="T30" s="15">
+        <v>14</v>
+      </c>
+      <c r="U30" s="15">
+        <v>15</v>
+      </c>
+      <c r="V30" s="15">
+        <v>16</v>
+      </c>
+      <c r="W30" s="16">
+        <v>17</v>
+      </c>
+      <c r="X30" s="16">
+        <v>18</v>
+      </c>
+      <c r="Y30" s="16">
+        <v>19</v>
+      </c>
+      <c r="Z30" s="16">
+        <v>20</v>
+      </c>
+      <c r="AA30" s="16">
+        <v>21</v>
+      </c>
+      <c r="AB30" s="15">
+        <v>22</v>
+      </c>
+      <c r="AC30" s="15">
+        <v>23</v>
+      </c>
+      <c r="AD30" s="15">
+        <v>24</v>
+      </c>
+      <c r="AE30" s="16">
+        <v>25</v>
+      </c>
+      <c r="AF30" s="16">
+        <v>26</v>
+      </c>
+      <c r="AG30" s="16">
+        <v>27</v>
+      </c>
+      <c r="AH30" s="16">
+        <v>28</v>
+      </c>
+      <c r="AI30" s="16">
+        <v>29</v>
+      </c>
+      <c r="AJ30" s="16">
+        <v>30</v>
+      </c>
+      <c r="AK30" s="16">
+        <v>31</v>
+      </c>
+      <c r="AL30" s="16">
+        <v>32</v>
+      </c>
+      <c r="AM30" s="16">
+        <v>33</v>
+      </c>
+      <c r="AN30" s="16">
+        <v>34</v>
+      </c>
+      <c r="AO30" s="16">
+        <v>35</v>
+      </c>
+      <c r="AP30" s="16">
+        <v>36</v>
+      </c>
+      <c r="AQ30" s="16">
+        <v>37</v>
+      </c>
+      <c r="AR30" s="16">
+        <v>38</v>
+      </c>
+      <c r="AS30" s="16">
+        <v>39</v>
+      </c>
+      <c r="AT30" s="16">
+        <v>40</v>
+      </c>
+      <c r="AU30" s="16">
+        <v>41</v>
+      </c>
+      <c r="AV30" s="16">
+        <v>42</v>
+      </c>
+      <c r="AW30" s="16">
+        <v>43</v>
+      </c>
+      <c r="AX30" s="16">
+        <v>44</v>
+      </c>
+      <c r="AY30" s="16">
+        <v>45</v>
+      </c>
+      <c r="AZ30" s="16">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:52">
+      <c r="A31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="36">
+        <v>0</v>
+      </c>
+      <c r="C31" s="36">
+        <v>4</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="17">
+        <v>2</v>
+      </c>
+      <c r="H31" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="33"/>
+      <c r="J31" s="17">
+        <v>3</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L31" s="33"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="33"/>
+      <c r="Z31" s="33"/>
+      <c r="AA31" s="33"/>
+      <c r="AB31" s="33"/>
+      <c r="AC31" s="33"/>
+      <c r="AD31" s="33"/>
+      <c r="AE31" s="33"/>
+      <c r="AF31" s="33"/>
+      <c r="AG31" s="33"/>
+      <c r="AH31" s="33"/>
+      <c r="AI31" s="33"/>
+      <c r="AJ31" s="33"/>
+      <c r="AK31" s="33"/>
+      <c r="AL31" s="33"/>
+      <c r="AM31" s="33"/>
+      <c r="AN31" s="33"/>
+      <c r="AO31" s="33"/>
+      <c r="AP31" s="33"/>
+      <c r="AQ31" s="33"/>
+      <c r="AR31" s="33"/>
+      <c r="AS31" s="33"/>
+      <c r="AT31" s="33"/>
+      <c r="AU31" s="33"/>
+      <c r="AV31" s="33"/>
+      <c r="AW31" s="33"/>
+      <c r="AX31" s="33"/>
+      <c r="AY31" s="33"/>
+      <c r="AZ31" s="33"/>
+    </row>
+    <row r="32" spans="1:52">
+      <c r="A32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="36">
+        <v>2</v>
+      </c>
+      <c r="C32" s="36">
+        <v>6</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="32"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="18">
+        <v>2</v>
+      </c>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="46">
+        <v>3</v>
+      </c>
+      <c r="O32" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="T32" s="18">
+        <v>4</v>
+      </c>
+      <c r="U32" s="18">
+        <v>5</v>
+      </c>
+      <c r="V32" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="W32" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="X32" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="33"/>
+      <c r="AA32" s="33"/>
+      <c r="AB32" s="33"/>
+      <c r="AC32" s="33"/>
+      <c r="AD32" s="33"/>
+      <c r="AE32" s="33"/>
+      <c r="AF32" s="33"/>
+      <c r="AG32" s="33"/>
+      <c r="AH32" s="33"/>
+      <c r="AI32" s="33"/>
+      <c r="AJ32" s="33"/>
+      <c r="AK32" s="33"/>
+      <c r="AL32" s="33"/>
+      <c r="AM32" s="33"/>
+      <c r="AN32" s="33"/>
+      <c r="AO32" s="33"/>
+      <c r="AP32" s="33"/>
+      <c r="AQ32" s="33"/>
+      <c r="AR32" s="33"/>
+      <c r="AS32" s="33"/>
+      <c r="AT32" s="33"/>
+      <c r="AU32" s="33"/>
+      <c r="AV32" s="33"/>
+      <c r="AW32" s="33"/>
+      <c r="AX32" s="33"/>
+      <c r="AY32" s="33"/>
+      <c r="AZ32" s="33"/>
+    </row>
+    <row r="33" spans="1:52">
+      <c r="A33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="36">
+        <v>3</v>
+      </c>
+      <c r="C33" s="36">
+        <v>4</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="19">
+        <v>1</v>
+      </c>
+      <c r="M33" s="44">
+        <v>2</v>
+      </c>
+      <c r="N33" s="33"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="19">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="33"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="33"/>
+      <c r="Z33" s="33"/>
+      <c r="AA33" s="33"/>
+      <c r="AB33" s="33"/>
+      <c r="AC33" s="33"/>
+      <c r="AD33" s="33"/>
+      <c r="AE33" s="33"/>
+      <c r="AF33" s="33"/>
+      <c r="AG33" s="33"/>
+      <c r="AH33" s="33"/>
+      <c r="AI33" s="33"/>
+      <c r="AJ33" s="33"/>
+      <c r="AK33" s="33"/>
+      <c r="AL33" s="33"/>
+      <c r="AM33" s="33"/>
+      <c r="AN33" s="33"/>
+      <c r="AO33" s="33"/>
+      <c r="AP33" s="33"/>
+      <c r="AQ33" s="33"/>
+      <c r="AR33" s="33"/>
+      <c r="AS33" s="33"/>
+      <c r="AT33" s="33"/>
+      <c r="AU33" s="33"/>
+      <c r="AV33" s="33"/>
+      <c r="AW33" s="33"/>
+      <c r="AX33" s="33"/>
+      <c r="AY33" s="33"/>
+      <c r="AZ33" s="33"/>
+    </row>
+    <row r="34" spans="1:52">
+      <c r="A34" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="36">
+        <v>6</v>
+      </c>
+      <c r="C34" s="36">
+        <v>5</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="32"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="L34" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M34" s="45"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="40">
+        <v>1</v>
+      </c>
+      <c r="P34" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q34" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="S34" s="41"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="20">
+        <v>2</v>
+      </c>
+      <c r="W34" s="20">
+        <v>3</v>
+      </c>
+      <c r="X34" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y34" s="20">
+        <v>4</v>
+      </c>
+      <c r="Z34" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA34" s="33"/>
+      <c r="AB34" s="33"/>
+      <c r="AC34" s="33"/>
+      <c r="AD34" s="33"/>
+      <c r="AE34" s="33"/>
+      <c r="AF34" s="33"/>
+      <c r="AG34" s="33"/>
+      <c r="AH34" s="33"/>
+      <c r="AI34" s="33"/>
+      <c r="AJ34" s="33"/>
+      <c r="AK34" s="33"/>
+      <c r="AL34" s="33"/>
+      <c r="AM34" s="33"/>
+      <c r="AN34" s="33"/>
+      <c r="AO34" s="33"/>
+      <c r="AP34" s="33"/>
+      <c r="AQ34" s="33"/>
+      <c r="AR34" s="33"/>
+      <c r="AS34" s="33"/>
+      <c r="AT34" s="33"/>
+      <c r="AU34" s="33"/>
+      <c r="AV34" s="33"/>
+      <c r="AW34" s="33"/>
+      <c r="AX34" s="33"/>
+      <c r="AY34" s="33"/>
+      <c r="AZ34" s="33"/>
+    </row>
+    <row r="35" spans="1:52">
+      <c r="A35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="36">
+        <v>8</v>
+      </c>
+      <c r="C35" s="36">
+        <v>2</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="O35" s="33"/>
+      <c r="R35" s="21">
+        <v>1</v>
+      </c>
+      <c r="S35" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="V35" s="33"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="33"/>
+      <c r="Z35" s="33"/>
+      <c r="AA35" s="33"/>
+      <c r="AB35" s="33"/>
+      <c r="AC35" s="33"/>
+      <c r="AD35" s="33"/>
+      <c r="AE35" s="33"/>
+      <c r="AF35" s="33"/>
+      <c r="AG35" s="33"/>
+      <c r="AH35" s="33"/>
+      <c r="AI35" s="33"/>
+      <c r="AJ35" s="33"/>
+      <c r="AK35" s="33"/>
+      <c r="AL35" s="33"/>
+      <c r="AM35" s="33"/>
+      <c r="AN35" s="33"/>
+      <c r="AO35" s="33"/>
+      <c r="AP35" s="33"/>
+      <c r="AQ35" s="33"/>
+      <c r="AR35" s="33"/>
+      <c r="AS35" s="33"/>
+      <c r="AT35" s="33"/>
+      <c r="AU35" s="33"/>
+      <c r="AV35" s="33"/>
+      <c r="AW35" s="33"/>
+      <c r="AX35" s="33"/>
+      <c r="AY35" s="33"/>
+      <c r="AZ35" s="33"/>
+    </row>
+    <row r="36" spans="1:52">
+      <c r="A36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="36"/>
+      <c r="F36" s="34">
+        <v>1</v>
+      </c>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33">
+        <v>2</v>
+      </c>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33">
+        <v>1</v>
+      </c>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33">
+        <v>3</v>
+      </c>
+      <c r="M36" s="33"/>
+      <c r="N36" s="8">
+        <v>2</v>
+      </c>
+      <c r="O36" s="33">
+        <v>4</v>
+      </c>
+      <c r="P36" s="33">
+        <v>3</v>
+      </c>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33">
+        <v>5</v>
+      </c>
+      <c r="S36" s="33"/>
+      <c r="T36" s="8">
+        <v>2</v>
+      </c>
+      <c r="U36" s="33"/>
+      <c r="V36" s="33">
+        <v>4</v>
+      </c>
+      <c r="W36" s="33"/>
+      <c r="X36" s="33">
+        <v>2</v>
+      </c>
+      <c r="Y36" s="33"/>
+      <c r="Z36" s="33"/>
+      <c r="AA36" s="33"/>
+      <c r="AB36" s="33"/>
+      <c r="AC36" s="33"/>
+      <c r="AD36" s="33"/>
+      <c r="AE36" s="33"/>
+      <c r="AF36" s="33"/>
+      <c r="AG36" s="33"/>
+      <c r="AH36" s="33"/>
+      <c r="AI36" s="33"/>
+      <c r="AJ36" s="33"/>
+      <c r="AK36" s="33"/>
+      <c r="AL36" s="33"/>
+      <c r="AM36" s="33"/>
+      <c r="AN36" s="33"/>
+      <c r="AO36" s="33"/>
+      <c r="AP36" s="33"/>
+      <c r="AQ36" s="33"/>
+      <c r="AR36" s="33"/>
+      <c r="AS36" s="33"/>
+      <c r="AT36" s="33"/>
+      <c r="AU36" s="33"/>
+      <c r="AV36" s="33"/>
+      <c r="AW36" s="33"/>
+      <c r="AX36" s="33"/>
+      <c r="AY36" s="33"/>
+      <c r="AZ36" s="33"/>
+    </row>
+    <row r="37" spans="1:52">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="8">
+        <v>1</v>
+      </c>
+      <c r="J37" s="8"/>
+      <c r="L37" s="8">
+        <v>2</v>
+      </c>
+      <c r="N37" s="33">
+        <v>4</v>
+      </c>
+      <c r="O37" s="8">
+        <v>3</v>
+      </c>
+      <c r="P37" s="41">
+        <v>5</v>
+      </c>
+      <c r="R37" s="8">
+        <v>2</v>
+      </c>
+      <c r="S37" s="1"/>
+      <c r="T37" s="8">
+        <v>4</v>
+      </c>
+      <c r="U37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="1"/>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="1"/>
+      <c r="AX37" s="1"/>
+      <c r="AY37" s="1"/>
+      <c r="AZ37" s="1"/>
+    </row>
+    <row r="38" spans="1:52">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="J38" s="8"/>
+      <c r="L38" s="8">
+        <v>4</v>
+      </c>
+      <c r="N38" s="8">
+        <v>3</v>
+      </c>
+      <c r="O38" s="8">
+        <v>5</v>
+      </c>
+      <c r="P38" s="8">
+        <v>2</v>
+      </c>
+      <c r="R38" s="8">
+        <v>4</v>
+      </c>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="1"/>
+      <c r="AU38" s="1"/>
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="1"/>
+      <c r="AX38" s="1"/>
+      <c r="AY38" s="1"/>
+      <c r="AZ38" s="1"/>
+    </row>
+    <row r="39" spans="1:52">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="8"/>
+      <c r="N39" s="8">
+        <v>5</v>
+      </c>
+      <c r="O39" s="33">
+        <v>2</v>
+      </c>
+      <c r="P39" s="33">
+        <v>4</v>
+      </c>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1"/>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1"/>
+      <c r="AT39" s="1"/>
+      <c r="AU39" s="1"/>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="1"/>
+      <c r="AX39" s="1"/>
+      <c r="AY39" s="1"/>
+      <c r="AZ39" s="1"/>
+    </row>
+    <row r="40" spans="1:52">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
+      <c r="AO40" s="1"/>
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1"/>
+      <c r="AT40" s="1"/>
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="1"/>
+      <c r="AX40" s="1"/>
+      <c r="AY40" s="1"/>
+      <c r="AZ40" s="1"/>
+    </row>
+    <row r="41" spans="1:52">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="1"/>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="1"/>
+      <c r="AX41" s="1"/>
+      <c r="AY41" s="1"/>
+      <c r="AZ41" s="1"/>
+    </row>
+    <row r="42" spans="1:52" ht="15.75" thickBot="1">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1"/>
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="1"/>
+      <c r="AO42" s="1"/>
+      <c r="AP42" s="1"/>
+      <c r="AQ42" s="1"/>
+      <c r="AR42" s="1"/>
+      <c r="AS42" s="1"/>
+      <c r="AT42" s="1"/>
+      <c r="AU42" s="1"/>
+      <c r="AV42" s="1"/>
+      <c r="AW42" s="1"/>
+      <c r="AX42" s="1"/>
+      <c r="AY42" s="1"/>
+      <c r="AZ42" s="1"/>
+    </row>
+    <row r="43" spans="1:52">
+      <c r="A43" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="1"/>
+      <c r="AO43" s="1"/>
+      <c r="AP43" s="1"/>
+      <c r="AQ43" s="1"/>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="1"/>
+      <c r="AT43" s="1"/>
+      <c r="AU43" s="1"/>
+      <c r="AV43" s="1"/>
+      <c r="AW43" s="1"/>
+      <c r="AX43" s="1"/>
+      <c r="AY43" s="1"/>
+      <c r="AZ43" s="1"/>
+    </row>
+    <row r="44" spans="1:52">
+      <c r="A44" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="8">
+        <v>2</v>
+      </c>
+      <c r="C44" s="8">
+        <v>6</v>
+      </c>
+      <c r="D44" s="8">
+        <v>7.2</v>
+      </c>
+      <c r="E44" s="31">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1"/>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="1"/>
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="1"/>
+      <c r="AO44" s="1"/>
+      <c r="AP44" s="1"/>
+      <c r="AQ44" s="1"/>
+      <c r="AR44" s="1"/>
+      <c r="AS44" s="1"/>
+      <c r="AT44" s="1"/>
+      <c r="AU44" s="1"/>
+      <c r="AV44" s="1"/>
+      <c r="AW44" s="1"/>
+      <c r="AX44" s="1"/>
+      <c r="AY44" s="1"/>
+      <c r="AZ44" s="1"/>
+    </row>
+    <row r="45" spans="1:52">
+      <c r="A45" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="8">
+        <v>11</v>
+      </c>
+      <c r="C45" s="8">
+        <v>17</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1"/>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="1"/>
+      <c r="AO45" s="1"/>
+      <c r="AP45" s="1"/>
+      <c r="AQ45" s="1"/>
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="1"/>
+      <c r="AT45" s="1"/>
+      <c r="AU45" s="1"/>
+      <c r="AV45" s="1"/>
+      <c r="AW45" s="1"/>
+      <c r="AX45" s="1"/>
+      <c r="AY45" s="1"/>
+      <c r="AZ45" s="1"/>
+    </row>
+    <row r="46" spans="1:52" ht="15.75" thickBot="1">
+      <c r="A46" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="22">
+        <v>9</v>
+      </c>
+      <c r="C46" s="27">
+        <v>5</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1"/>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="1"/>
+      <c r="AM46" s="1"/>
+      <c r="AN46" s="1"/>
+      <c r="AO46" s="1"/>
+      <c r="AP46" s="1"/>
+      <c r="AQ46" s="1"/>
+      <c r="AR46" s="1"/>
+      <c r="AS46" s="1"/>
+      <c r="AT46" s="1"/>
+      <c r="AU46" s="1"/>
+      <c r="AV46" s="1"/>
+      <c r="AW46" s="1"/>
+      <c r="AX46" s="1"/>
+      <c r="AY46" s="1"/>
+      <c r="AZ46" s="1"/>
+    </row>
+    <row r="47" spans="1:52">
+      <c r="A47" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="30">
+        <v>10</v>
+      </c>
+      <c r="C47" s="30">
+        <v>15</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="1"/>
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="1"/>
+      <c r="AO47" s="1"/>
+      <c r="AP47" s="1"/>
+      <c r="AQ47" s="1"/>
+      <c r="AR47" s="1"/>
+      <c r="AS47" s="1"/>
+      <c r="AT47" s="1"/>
+      <c r="AU47" s="1"/>
+      <c r="AV47" s="1"/>
+      <c r="AW47" s="1"/>
+      <c r="AX47" s="1"/>
+      <c r="AY47" s="1"/>
+      <c r="AZ47" s="1"/>
+    </row>
+    <row r="48" spans="1:52" ht="15.75" thickBot="1">
+      <c r="A48" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="27">
+        <v>4</v>
+      </c>
+      <c r="C48" s="27">
+        <v>6</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1"/>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="1"/>
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="1"/>
+      <c r="AO48" s="1"/>
+      <c r="AP48" s="1"/>
+      <c r="AQ48" s="1"/>
+      <c r="AR48" s="1"/>
+      <c r="AS48" s="1"/>
+      <c r="AT48" s="1"/>
+      <c r="AU48" s="1"/>
+      <c r="AV48" s="1"/>
+      <c r="AW48" s="1"/>
+      <c r="AX48" s="1"/>
+      <c r="AY48" s="1"/>
+      <c r="AZ48" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/P4/ejercicio10.xlsx
+++ b/P4/ejercicio10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="10515" windowHeight="8010"/>
+    <workbookView xWindow="600" yWindow="60" windowWidth="28230" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="45">
   <si>
     <t>Proceso</t>
   </si>
@@ -110,12 +110,54 @@
   <si>
     <t>Q=2</t>
   </si>
+  <si>
+    <t>(R1,2,3)(R1,3,2)</t>
+  </si>
+  <si>
+    <t>(R2,3,2)</t>
+  </si>
+  <si>
+    <t>(R2,2,3)</t>
+  </si>
+  <si>
+    <t>R1 Q</t>
+  </si>
+  <si>
+    <t>6&lt;</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>(R1,1,2)</t>
+  </si>
+  <si>
+    <t>2&lt;</t>
+  </si>
+  <si>
+    <t>4&lt;</t>
+  </si>
+  <si>
+    <t>5&lt;</t>
+  </si>
+  <si>
+    <t>B)</t>
+  </si>
+  <si>
+    <t>1,1,4</t>
+  </si>
+  <si>
+    <t>3,2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,8 +180,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,8 +248,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -407,12 +474,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -498,6 +587,48 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral 2" xfId="1"/>
@@ -793,14 +924,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AZ48"/>
+  <dimension ref="A1:AZ105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="G37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q104" sqref="Q104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3512,6 +3644,2685 @@
       <c r="AY48" s="1"/>
       <c r="AZ48" s="1"/>
     </row>
+    <row r="57" spans="1:52">
+      <c r="A57" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:52">
+      <c r="A59" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="36">
+        <v>0</v>
+      </c>
+      <c r="G59" s="14">
+        <v>1</v>
+      </c>
+      <c r="H59" s="15">
+        <v>2</v>
+      </c>
+      <c r="I59" s="15">
+        <v>3</v>
+      </c>
+      <c r="J59" s="15">
+        <v>4</v>
+      </c>
+      <c r="K59" s="15">
+        <v>5</v>
+      </c>
+      <c r="L59" s="15">
+        <v>6</v>
+      </c>
+      <c r="M59" s="36">
+        <v>7</v>
+      </c>
+      <c r="N59" s="15">
+        <v>8</v>
+      </c>
+      <c r="O59" s="15">
+        <v>9</v>
+      </c>
+      <c r="P59" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q59" s="15">
+        <v>11</v>
+      </c>
+      <c r="R59" s="15">
+        <v>12</v>
+      </c>
+      <c r="S59" s="15">
+        <v>13</v>
+      </c>
+      <c r="T59" s="15">
+        <v>14</v>
+      </c>
+      <c r="U59" s="15">
+        <v>15</v>
+      </c>
+      <c r="V59" s="15">
+        <v>16</v>
+      </c>
+      <c r="W59" s="16">
+        <v>17</v>
+      </c>
+      <c r="X59" s="16">
+        <v>18</v>
+      </c>
+      <c r="Y59" s="16">
+        <v>19</v>
+      </c>
+      <c r="Z59" s="16">
+        <v>20</v>
+      </c>
+      <c r="AA59" s="16">
+        <v>21</v>
+      </c>
+      <c r="AB59" s="15">
+        <v>22</v>
+      </c>
+      <c r="AC59" s="15">
+        <v>23</v>
+      </c>
+      <c r="AD59" s="15">
+        <v>24</v>
+      </c>
+      <c r="AE59" s="16">
+        <v>25</v>
+      </c>
+      <c r="AF59" s="16">
+        <v>26</v>
+      </c>
+      <c r="AG59" s="16">
+        <v>27</v>
+      </c>
+      <c r="AH59" s="16">
+        <v>28</v>
+      </c>
+      <c r="AI59" s="16">
+        <v>29</v>
+      </c>
+      <c r="AJ59" s="16">
+        <v>30</v>
+      </c>
+      <c r="AK59" s="16">
+        <v>31</v>
+      </c>
+      <c r="AL59" s="16">
+        <v>32</v>
+      </c>
+      <c r="AM59" s="16">
+        <v>33</v>
+      </c>
+      <c r="AN59" s="16">
+        <v>34</v>
+      </c>
+      <c r="AO59" s="16">
+        <v>35</v>
+      </c>
+      <c r="AP59" s="16">
+        <v>36</v>
+      </c>
+      <c r="AQ59" s="16">
+        <v>37</v>
+      </c>
+      <c r="AR59" s="16">
+        <v>38</v>
+      </c>
+      <c r="AS59" s="16">
+        <v>39</v>
+      </c>
+      <c r="AT59" s="16">
+        <v>40</v>
+      </c>
+      <c r="AU59" s="16">
+        <v>41</v>
+      </c>
+      <c r="AV59" s="16">
+        <v>42</v>
+      </c>
+      <c r="AW59" s="16">
+        <v>43</v>
+      </c>
+      <c r="AX59" s="16">
+        <v>44</v>
+      </c>
+      <c r="AY59" s="16">
+        <v>45</v>
+      </c>
+      <c r="AZ59" s="16">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:52">
+      <c r="A60" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="36">
+        <v>0</v>
+      </c>
+      <c r="C60" s="36">
+        <v>4</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="F60" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="G60" s="58">
+        <v>2</v>
+      </c>
+      <c r="H60" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="J60" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="58">
+        <v>3</v>
+      </c>
+      <c r="N60" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="O60" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q60" s="33"/>
+      <c r="R60" s="33"/>
+      <c r="S60" s="33"/>
+      <c r="T60" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="U60" s="33"/>
+      <c r="V60" s="33"/>
+      <c r="W60" s="33"/>
+      <c r="X60" s="33"/>
+      <c r="Y60" s="33"/>
+      <c r="Z60" s="33"/>
+      <c r="AA60" s="33"/>
+      <c r="AB60" s="33"/>
+      <c r="AC60" s="33"/>
+      <c r="AD60" s="33"/>
+      <c r="AE60" s="33"/>
+      <c r="AF60" s="33"/>
+      <c r="AG60" s="33"/>
+      <c r="AH60" s="33"/>
+      <c r="AI60" s="33"/>
+      <c r="AJ60" s="33"/>
+      <c r="AK60" s="33"/>
+      <c r="AL60" s="33"/>
+      <c r="AM60" s="33"/>
+      <c r="AN60" s="33"/>
+      <c r="AO60" s="33"/>
+      <c r="AP60" s="33"/>
+      <c r="AQ60" s="33"/>
+      <c r="AR60" s="33"/>
+      <c r="AS60" s="33"/>
+      <c r="AT60" s="33"/>
+      <c r="AU60" s="33"/>
+      <c r="AV60" s="33"/>
+      <c r="AW60" s="33"/>
+      <c r="AX60" s="33"/>
+      <c r="AY60" s="33"/>
+      <c r="AZ60" s="33"/>
+    </row>
+    <row r="61" spans="1:52">
+      <c r="A61" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="36">
+        <v>2</v>
+      </c>
+      <c r="C61" s="36">
+        <v>6</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" s="32"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="I61" s="58">
+        <v>2</v>
+      </c>
+      <c r="J61" s="58">
+        <v>3</v>
+      </c>
+      <c r="K61" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="L61" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="M61" s="33"/>
+      <c r="N61" s="49"/>
+      <c r="O61" s="58">
+        <v>4</v>
+      </c>
+      <c r="P61" s="58">
+        <v>5</v>
+      </c>
+      <c r="Q61" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="R61" s="33"/>
+      <c r="S61" s="33"/>
+      <c r="T61" s="33"/>
+      <c r="U61" s="33"/>
+      <c r="V61" s="33"/>
+      <c r="W61" s="33"/>
+      <c r="X61" s="33"/>
+      <c r="Y61" s="33"/>
+      <c r="Z61" s="33"/>
+      <c r="AA61" s="33"/>
+      <c r="AB61" s="33"/>
+      <c r="AC61" s="33"/>
+      <c r="AD61" s="33"/>
+      <c r="AE61" s="33"/>
+      <c r="AF61" s="33"/>
+      <c r="AG61" s="33"/>
+      <c r="AH61" s="33"/>
+      <c r="AI61" s="33"/>
+      <c r="AJ61" s="33"/>
+      <c r="AK61" s="33"/>
+      <c r="AL61" s="33"/>
+      <c r="AM61" s="33"/>
+      <c r="AN61" s="33"/>
+      <c r="AO61" s="33"/>
+      <c r="AP61" s="33"/>
+      <c r="AQ61" s="33"/>
+      <c r="AR61" s="33"/>
+      <c r="AS61" s="33"/>
+      <c r="AT61" s="33"/>
+      <c r="AU61" s="33"/>
+      <c r="AV61" s="33"/>
+      <c r="AW61" s="33"/>
+      <c r="AX61" s="33"/>
+      <c r="AY61" s="33"/>
+      <c r="AZ61" s="33"/>
+    </row>
+    <row r="62" spans="1:52">
+      <c r="A62" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="36">
+        <v>3</v>
+      </c>
+      <c r="C62" s="36">
+        <v>4</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" s="32"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="J62" s="33"/>
+      <c r="K62" s="58">
+        <v>1</v>
+      </c>
+      <c r="L62" s="58">
+        <v>2</v>
+      </c>
+      <c r="M62" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="N62" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="O62" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q62" s="50"/>
+      <c r="R62" s="33"/>
+      <c r="S62" s="33"/>
+      <c r="T62" s="33"/>
+      <c r="U62" s="58">
+        <v>3</v>
+      </c>
+      <c r="V62" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="W62" s="33"/>
+      <c r="X62" s="33"/>
+      <c r="Y62" s="33"/>
+      <c r="Z62" s="33"/>
+      <c r="AA62" s="33"/>
+      <c r="AB62" s="33"/>
+      <c r="AC62" s="33"/>
+      <c r="AD62" s="33"/>
+      <c r="AE62" s="33"/>
+      <c r="AF62" s="33"/>
+      <c r="AG62" s="33"/>
+      <c r="AH62" s="33"/>
+      <c r="AI62" s="33"/>
+      <c r="AJ62" s="33"/>
+      <c r="AK62" s="33"/>
+      <c r="AL62" s="33"/>
+      <c r="AM62" s="33"/>
+      <c r="AN62" s="33"/>
+      <c r="AO62" s="33"/>
+      <c r="AP62" s="33"/>
+      <c r="AQ62" s="33"/>
+      <c r="AR62" s="33"/>
+      <c r="AS62" s="33"/>
+      <c r="AT62" s="33"/>
+      <c r="AU62" s="33"/>
+      <c r="AV62" s="33"/>
+      <c r="AW62" s="33"/>
+      <c r="AX62" s="33"/>
+      <c r="AY62" s="33"/>
+      <c r="AZ62" s="33"/>
+    </row>
+    <row r="63" spans="1:52">
+      <c r="A63" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="36">
+        <v>6</v>
+      </c>
+      <c r="C63" s="36">
+        <v>5</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" s="32"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="M63" s="45"/>
+      <c r="N63" s="65">
+        <v>1</v>
+      </c>
+      <c r="P63" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q63" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="R63" s="67"/>
+      <c r="T63" s="33"/>
+      <c r="U63" s="33"/>
+      <c r="V63" s="33"/>
+      <c r="W63" s="58">
+        <v>2</v>
+      </c>
+      <c r="X63" s="58">
+        <v>3</v>
+      </c>
+      <c r="Y63" s="58">
+        <v>4</v>
+      </c>
+      <c r="Z63" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA63" s="33"/>
+      <c r="AB63" s="33"/>
+      <c r="AC63" s="33"/>
+      <c r="AD63" s="33"/>
+      <c r="AE63" s="33"/>
+      <c r="AF63" s="33"/>
+      <c r="AG63" s="33"/>
+      <c r="AH63" s="33"/>
+      <c r="AI63" s="33"/>
+      <c r="AJ63" s="33"/>
+      <c r="AK63" s="33"/>
+      <c r="AL63" s="33"/>
+      <c r="AM63" s="33"/>
+      <c r="AN63" s="33"/>
+      <c r="AO63" s="33"/>
+      <c r="AP63" s="33"/>
+      <c r="AQ63" s="33"/>
+      <c r="AR63" s="33"/>
+      <c r="AS63" s="33"/>
+      <c r="AT63" s="33"/>
+      <c r="AU63" s="33"/>
+      <c r="AV63" s="33"/>
+      <c r="AW63" s="33"/>
+      <c r="AX63" s="33"/>
+      <c r="AY63" s="33"/>
+      <c r="AZ63" s="33"/>
+    </row>
+    <row r="64" spans="1:52">
+      <c r="A64" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="36">
+        <v>8</v>
+      </c>
+      <c r="C64" s="36">
+        <v>2</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="O64" s="33"/>
+      <c r="P64" s="50"/>
+      <c r="Q64" s="50"/>
+      <c r="R64" s="58">
+        <v>1</v>
+      </c>
+      <c r="S64" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="T64" s="33"/>
+      <c r="U64" s="33"/>
+      <c r="V64" s="33"/>
+      <c r="W64" s="33"/>
+      <c r="X64" s="33"/>
+      <c r="Y64" s="33"/>
+      <c r="Z64" s="33"/>
+      <c r="AA64" s="33"/>
+      <c r="AB64" s="33"/>
+      <c r="AC64" s="33"/>
+      <c r="AD64" s="33"/>
+      <c r="AE64" s="33"/>
+      <c r="AF64" s="33"/>
+      <c r="AG64" s="33"/>
+      <c r="AH64" s="33"/>
+      <c r="AI64" s="33"/>
+      <c r="AJ64" s="33"/>
+      <c r="AK64" s="33"/>
+      <c r="AL64" s="33"/>
+      <c r="AM64" s="33"/>
+      <c r="AN64" s="33"/>
+      <c r="AO64" s="33"/>
+      <c r="AP64" s="33"/>
+      <c r="AQ64" s="33"/>
+      <c r="AR64" s="33"/>
+      <c r="AS64" s="33"/>
+      <c r="AT64" s="33"/>
+      <c r="AU64" s="33"/>
+      <c r="AV64" s="33"/>
+      <c r="AW64" s="33"/>
+      <c r="AX64" s="33"/>
+      <c r="AY64" s="33"/>
+      <c r="AZ64" s="33"/>
+    </row>
+    <row r="65" spans="1:52">
+      <c r="A65" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="36"/>
+      <c r="F65" s="55">
+        <v>1</v>
+      </c>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33">
+        <v>2</v>
+      </c>
+      <c r="I65" s="33"/>
+      <c r="J65" s="45"/>
+      <c r="K65" s="33">
+        <v>3</v>
+      </c>
+      <c r="L65" s="73"/>
+      <c r="M65" s="33">
+        <v>1</v>
+      </c>
+      <c r="N65" s="33">
+        <v>4</v>
+      </c>
+      <c r="O65" s="49">
+        <v>2</v>
+      </c>
+      <c r="P65" s="42"/>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="33">
+        <v>5</v>
+      </c>
+      <c r="S65" s="45"/>
+      <c r="T65" s="33">
+        <v>1</v>
+      </c>
+      <c r="U65" s="33">
+        <v>3</v>
+      </c>
+      <c r="V65" s="42"/>
+      <c r="W65" s="33">
+        <v>4</v>
+      </c>
+      <c r="X65" s="33"/>
+      <c r="Y65" s="33"/>
+      <c r="Z65" s="33"/>
+      <c r="AA65" s="33"/>
+      <c r="AB65" s="33"/>
+      <c r="AC65" s="33"/>
+      <c r="AD65" s="33"/>
+      <c r="AE65" s="33"/>
+      <c r="AF65" s="33"/>
+      <c r="AG65" s="33"/>
+      <c r="AH65" s="33"/>
+      <c r="AI65" s="33"/>
+      <c r="AJ65" s="33"/>
+      <c r="AK65" s="33"/>
+      <c r="AL65" s="33"/>
+      <c r="AM65" s="33"/>
+      <c r="AN65" s="33"/>
+      <c r="AO65" s="33"/>
+      <c r="AP65" s="33"/>
+      <c r="AQ65" s="33"/>
+      <c r="AR65" s="33"/>
+      <c r="AS65" s="33"/>
+      <c r="AT65" s="33"/>
+      <c r="AU65" s="33"/>
+      <c r="AV65" s="33"/>
+      <c r="AW65" s="33"/>
+      <c r="AX65" s="33"/>
+      <c r="AY65" s="33"/>
+      <c r="AZ65" s="33"/>
+    </row>
+    <row r="66" spans="1:52">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="71">
+        <v>1</v>
+      </c>
+      <c r="L66" s="7"/>
+      <c r="M66" s="66">
+        <v>4</v>
+      </c>
+      <c r="N66" s="70">
+        <v>2</v>
+      </c>
+      <c r="O66" s="72">
+        <v>5</v>
+      </c>
+      <c r="P66" s="54"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="74">
+        <v>1</v>
+      </c>
+      <c r="S66" s="7"/>
+      <c r="T66" s="70">
+        <v>3</v>
+      </c>
+      <c r="U66" s="71">
+        <v>4</v>
+      </c>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="1"/>
+      <c r="AC66" s="1"/>
+      <c r="AD66" s="1"/>
+      <c r="AE66" s="1"/>
+      <c r="AF66" s="1"/>
+      <c r="AG66" s="1"/>
+      <c r="AH66" s="1"/>
+      <c r="AI66" s="1"/>
+      <c r="AJ66" s="1"/>
+      <c r="AK66" s="1"/>
+      <c r="AL66" s="1"/>
+      <c r="AM66" s="1"/>
+      <c r="AN66" s="1"/>
+      <c r="AO66" s="1"/>
+      <c r="AP66" s="1"/>
+      <c r="AQ66" s="1"/>
+      <c r="AR66" s="1"/>
+      <c r="AS66" s="1"/>
+      <c r="AT66" s="1"/>
+      <c r="AU66" s="1"/>
+      <c r="AV66" s="1"/>
+      <c r="AW66" s="1"/>
+      <c r="AX66" s="1"/>
+      <c r="AY66" s="1"/>
+      <c r="AZ66" s="1"/>
+    </row>
+    <row r="67" spans="1:52">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67" s="68">
+        <v>1</v>
+      </c>
+      <c r="G67" s="69">
+        <v>4</v>
+      </c>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="70">
+        <v>2</v>
+      </c>
+      <c r="N67" s="71">
+        <v>5</v>
+      </c>
+      <c r="O67" s="71"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="70">
+        <v>3</v>
+      </c>
+      <c r="S67" s="7"/>
+      <c r="T67" s="71">
+        <v>4</v>
+      </c>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+      <c r="AF67" s="1"/>
+      <c r="AG67" s="1"/>
+      <c r="AH67" s="1"/>
+      <c r="AI67" s="1"/>
+      <c r="AJ67" s="1"/>
+      <c r="AK67" s="1"/>
+      <c r="AL67" s="1"/>
+      <c r="AM67" s="1"/>
+      <c r="AN67" s="1"/>
+      <c r="AO67" s="1"/>
+      <c r="AP67" s="1"/>
+      <c r="AQ67" s="1"/>
+      <c r="AR67" s="1"/>
+      <c r="AS67" s="1"/>
+      <c r="AT67" s="1"/>
+      <c r="AU67" s="1"/>
+      <c r="AV67" s="1"/>
+      <c r="AW67" s="1"/>
+      <c r="AX67" s="1"/>
+      <c r="AY67" s="1"/>
+      <c r="AZ67" s="1"/>
+    </row>
+    <row r="68" spans="1:52">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="43">
+        <v>5</v>
+      </c>
+      <c r="N68" s="53"/>
+      <c r="P68" s="53"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="71">
+        <v>4</v>
+      </c>
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
+      <c r="V68" s="7"/>
+      <c r="W68" s="7"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+      <c r="AF68" s="1"/>
+      <c r="AG68" s="1"/>
+      <c r="AH68" s="1"/>
+      <c r="AI68" s="1"/>
+      <c r="AJ68" s="1"/>
+      <c r="AK68" s="1"/>
+      <c r="AL68" s="1"/>
+      <c r="AM68" s="1"/>
+      <c r="AN68" s="1"/>
+      <c r="AO68" s="1"/>
+      <c r="AP68" s="1"/>
+      <c r="AQ68" s="1"/>
+      <c r="AR68" s="1"/>
+      <c r="AS68" s="1"/>
+      <c r="AT68" s="1"/>
+      <c r="AU68" s="1"/>
+      <c r="AV68" s="1"/>
+      <c r="AW68" s="1"/>
+      <c r="AX68" s="1"/>
+      <c r="AY68" s="1"/>
+      <c r="AZ68" s="1"/>
+    </row>
+    <row r="69" spans="1:52">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="1"/>
+      <c r="AG69" s="1"/>
+      <c r="AH69" s="1"/>
+      <c r="AI69" s="1"/>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="1"/>
+      <c r="AL69" s="1"/>
+      <c r="AM69" s="1"/>
+      <c r="AN69" s="1"/>
+      <c r="AO69" s="1"/>
+      <c r="AP69" s="1"/>
+      <c r="AQ69" s="1"/>
+      <c r="AR69" s="1"/>
+      <c r="AS69" s="1"/>
+      <c r="AT69" s="1"/>
+      <c r="AU69" s="1"/>
+      <c r="AV69" s="1"/>
+      <c r="AW69" s="1"/>
+      <c r="AX69" s="1"/>
+      <c r="AY69" s="1"/>
+      <c r="AZ69" s="1"/>
+    </row>
+    <row r="70" spans="1:52">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="1"/>
+      <c r="AC70" s="1"/>
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="1"/>
+      <c r="AF70" s="1"/>
+      <c r="AG70" s="1"/>
+      <c r="AH70" s="1"/>
+      <c r="AI70" s="1"/>
+      <c r="AJ70" s="1"/>
+      <c r="AK70" s="1"/>
+      <c r="AL70" s="1"/>
+      <c r="AM70" s="1"/>
+      <c r="AN70" s="1"/>
+      <c r="AO70" s="1"/>
+      <c r="AP70" s="1"/>
+      <c r="AQ70" s="1"/>
+      <c r="AR70" s="1"/>
+      <c r="AS70" s="1"/>
+      <c r="AT70" s="1"/>
+      <c r="AU70" s="1"/>
+      <c r="AV70" s="1"/>
+      <c r="AW70" s="1"/>
+      <c r="AX70" s="1"/>
+      <c r="AY70" s="1"/>
+      <c r="AZ70" s="1"/>
+    </row>
+    <row r="71" spans="1:52" ht="15.75" thickBot="1">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="1"/>
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="1"/>
+      <c r="AF71" s="1"/>
+      <c r="AG71" s="1"/>
+      <c r="AH71" s="1"/>
+      <c r="AI71" s="1"/>
+      <c r="AJ71" s="1"/>
+      <c r="AK71" s="1"/>
+      <c r="AL71" s="1"/>
+      <c r="AM71" s="1"/>
+      <c r="AN71" s="1"/>
+      <c r="AO71" s="1"/>
+      <c r="AP71" s="1"/>
+      <c r="AQ71" s="1"/>
+      <c r="AR71" s="1"/>
+      <c r="AS71" s="1"/>
+      <c r="AT71" s="1"/>
+      <c r="AU71" s="1"/>
+      <c r="AV71" s="1"/>
+      <c r="AW71" s="1"/>
+      <c r="AX71" s="1"/>
+      <c r="AY71" s="1"/>
+      <c r="AZ71" s="1"/>
+    </row>
+    <row r="72" spans="1:52">
+      <c r="A72" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" s="56"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="1"/>
+      <c r="AB72" s="1"/>
+      <c r="AC72" s="1"/>
+      <c r="AD72" s="1"/>
+      <c r="AE72" s="1"/>
+      <c r="AF72" s="1"/>
+      <c r="AG72" s="1"/>
+      <c r="AH72" s="1"/>
+      <c r="AI72" s="1"/>
+      <c r="AJ72" s="1"/>
+      <c r="AK72" s="1"/>
+      <c r="AL72" s="1"/>
+      <c r="AM72" s="1"/>
+      <c r="AN72" s="1"/>
+      <c r="AO72" s="1"/>
+      <c r="AP72" s="1"/>
+      <c r="AQ72" s="1"/>
+      <c r="AR72" s="1"/>
+      <c r="AS72" s="1"/>
+      <c r="AT72" s="1"/>
+      <c r="AU72" s="1"/>
+      <c r="AV72" s="1"/>
+      <c r="AW72" s="1"/>
+      <c r="AX72" s="1"/>
+      <c r="AY72" s="1"/>
+      <c r="AZ72" s="1"/>
+    </row>
+    <row r="73" spans="1:52">
+      <c r="A73" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="8">
+        <v>11</v>
+      </c>
+      <c r="C73" s="8">
+        <v>15</v>
+      </c>
+      <c r="D73" s="8">
+        <v>12</v>
+      </c>
+      <c r="E73" s="31">
+        <v>7.8</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
+      <c r="AB73" s="1"/>
+      <c r="AC73" s="1"/>
+      <c r="AD73" s="1"/>
+      <c r="AE73" s="1"/>
+      <c r="AF73" s="1"/>
+      <c r="AG73" s="1"/>
+      <c r="AH73" s="1"/>
+      <c r="AI73" s="1"/>
+      <c r="AJ73" s="1"/>
+      <c r="AK73" s="1"/>
+      <c r="AL73" s="1"/>
+      <c r="AM73" s="1"/>
+      <c r="AN73" s="1"/>
+      <c r="AO73" s="1"/>
+      <c r="AP73" s="1"/>
+      <c r="AQ73" s="1"/>
+      <c r="AR73" s="1"/>
+      <c r="AS73" s="1"/>
+      <c r="AT73" s="1"/>
+      <c r="AU73" s="1"/>
+      <c r="AV73" s="1"/>
+      <c r="AW73" s="1"/>
+      <c r="AX73" s="1"/>
+      <c r="AY73" s="1"/>
+      <c r="AZ73" s="1"/>
+    </row>
+    <row r="74" spans="1:52">
+      <c r="A74" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="8">
+        <v>4</v>
+      </c>
+      <c r="C74" s="8">
+        <v>10</v>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
+      <c r="AD74" s="1"/>
+      <c r="AE74" s="1"/>
+      <c r="AF74" s="1"/>
+      <c r="AG74" s="1"/>
+      <c r="AH74" s="1"/>
+      <c r="AI74" s="1"/>
+      <c r="AJ74" s="1"/>
+      <c r="AK74" s="1"/>
+      <c r="AL74" s="1"/>
+      <c r="AM74" s="1"/>
+      <c r="AN74" s="1"/>
+      <c r="AO74" s="1"/>
+      <c r="AP74" s="1"/>
+      <c r="AQ74" s="1"/>
+      <c r="AR74" s="1"/>
+      <c r="AS74" s="1"/>
+      <c r="AT74" s="1"/>
+      <c r="AU74" s="1"/>
+      <c r="AV74" s="1"/>
+      <c r="AW74" s="1"/>
+      <c r="AX74" s="1"/>
+      <c r="AY74" s="1"/>
+      <c r="AZ74" s="1"/>
+    </row>
+    <row r="75" spans="1:52" ht="15.75" thickBot="1">
+      <c r="A75" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="22">
+        <v>10</v>
+      </c>
+      <c r="C75" s="27">
+        <v>14</v>
+      </c>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="1"/>
+      <c r="AD75" s="1"/>
+      <c r="AE75" s="1"/>
+      <c r="AF75" s="1"/>
+      <c r="AG75" s="1"/>
+      <c r="AH75" s="1"/>
+      <c r="AI75" s="1"/>
+      <c r="AJ75" s="1"/>
+      <c r="AK75" s="1"/>
+      <c r="AL75" s="1"/>
+      <c r="AM75" s="1"/>
+      <c r="AN75" s="1"/>
+      <c r="AO75" s="1"/>
+      <c r="AP75" s="1"/>
+      <c r="AQ75" s="1"/>
+      <c r="AR75" s="1"/>
+      <c r="AS75" s="1"/>
+      <c r="AT75" s="1"/>
+      <c r="AU75" s="1"/>
+      <c r="AV75" s="1"/>
+      <c r="AW75" s="1"/>
+      <c r="AX75" s="1"/>
+      <c r="AY75" s="1"/>
+      <c r="AZ75" s="1"/>
+    </row>
+    <row r="76" spans="1:52">
+      <c r="A76" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="30">
+        <v>10</v>
+      </c>
+      <c r="C76" s="30">
+        <v>15</v>
+      </c>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="1"/>
+      <c r="AC76" s="1"/>
+      <c r="AD76" s="1"/>
+      <c r="AE76" s="1"/>
+      <c r="AF76" s="1"/>
+      <c r="AG76" s="1"/>
+      <c r="AH76" s="1"/>
+      <c r="AI76" s="1"/>
+      <c r="AJ76" s="1"/>
+      <c r="AK76" s="1"/>
+      <c r="AL76" s="1"/>
+      <c r="AM76" s="1"/>
+      <c r="AN76" s="1"/>
+      <c r="AO76" s="1"/>
+      <c r="AP76" s="1"/>
+      <c r="AQ76" s="1"/>
+      <c r="AR76" s="1"/>
+      <c r="AS76" s="1"/>
+      <c r="AT76" s="1"/>
+      <c r="AU76" s="1"/>
+      <c r="AV76" s="1"/>
+      <c r="AW76" s="1"/>
+      <c r="AX76" s="1"/>
+      <c r="AY76" s="1"/>
+      <c r="AZ76" s="1"/>
+    </row>
+    <row r="77" spans="1:52" ht="15.75" thickBot="1">
+      <c r="A77" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="27">
+        <v>4</v>
+      </c>
+      <c r="C77" s="27">
+        <v>6</v>
+      </c>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
+      <c r="AB77" s="1"/>
+      <c r="AC77" s="1"/>
+      <c r="AD77" s="1"/>
+      <c r="AE77" s="1"/>
+      <c r="AF77" s="1"/>
+      <c r="AG77" s="1"/>
+      <c r="AH77" s="1"/>
+      <c r="AI77" s="1"/>
+      <c r="AJ77" s="1"/>
+      <c r="AK77" s="1"/>
+      <c r="AL77" s="1"/>
+      <c r="AM77" s="1"/>
+      <c r="AN77" s="1"/>
+      <c r="AO77" s="1"/>
+      <c r="AP77" s="1"/>
+      <c r="AQ77" s="1"/>
+      <c r="AR77" s="1"/>
+      <c r="AS77" s="1"/>
+      <c r="AT77" s="1"/>
+      <c r="AU77" s="1"/>
+      <c r="AV77" s="1"/>
+      <c r="AW77" s="1"/>
+      <c r="AX77" s="1"/>
+      <c r="AY77" s="1"/>
+      <c r="AZ77" s="1"/>
+    </row>
+    <row r="87" spans="1:52">
+      <c r="A87" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F87" s="36">
+        <v>0</v>
+      </c>
+      <c r="G87" s="14">
+        <v>1</v>
+      </c>
+      <c r="H87" s="15">
+        <v>2</v>
+      </c>
+      <c r="I87" s="15">
+        <v>3</v>
+      </c>
+      <c r="J87" s="15">
+        <v>4</v>
+      </c>
+      <c r="K87" s="15">
+        <v>5</v>
+      </c>
+      <c r="L87" s="36">
+        <v>6</v>
+      </c>
+      <c r="M87" s="36">
+        <v>7</v>
+      </c>
+      <c r="N87" s="36">
+        <v>8</v>
+      </c>
+      <c r="O87" s="36">
+        <v>9</v>
+      </c>
+      <c r="P87" s="36">
+        <v>10</v>
+      </c>
+      <c r="Q87" s="36">
+        <v>11</v>
+      </c>
+      <c r="R87" s="36">
+        <v>12</v>
+      </c>
+      <c r="S87" s="15">
+        <v>13</v>
+      </c>
+      <c r="T87" s="15">
+        <v>14</v>
+      </c>
+      <c r="U87" s="15">
+        <v>15</v>
+      </c>
+      <c r="V87" s="15">
+        <v>16</v>
+      </c>
+      <c r="W87" s="16">
+        <v>17</v>
+      </c>
+      <c r="X87" s="16">
+        <v>18</v>
+      </c>
+      <c r="Y87" s="16">
+        <v>19</v>
+      </c>
+      <c r="Z87" s="16">
+        <v>20</v>
+      </c>
+      <c r="AA87" s="16">
+        <v>21</v>
+      </c>
+      <c r="AB87" s="15">
+        <v>22</v>
+      </c>
+      <c r="AC87" s="15">
+        <v>23</v>
+      </c>
+      <c r="AD87" s="15">
+        <v>24</v>
+      </c>
+      <c r="AE87" s="16">
+        <v>25</v>
+      </c>
+      <c r="AF87" s="16">
+        <v>26</v>
+      </c>
+      <c r="AG87" s="16">
+        <v>27</v>
+      </c>
+      <c r="AH87" s="16">
+        <v>28</v>
+      </c>
+      <c r="AI87" s="16">
+        <v>29</v>
+      </c>
+      <c r="AJ87" s="16">
+        <v>30</v>
+      </c>
+      <c r="AK87" s="16">
+        <v>31</v>
+      </c>
+      <c r="AL87" s="16">
+        <v>32</v>
+      </c>
+      <c r="AM87" s="16">
+        <v>33</v>
+      </c>
+      <c r="AN87" s="16">
+        <v>34</v>
+      </c>
+      <c r="AO87" s="16">
+        <v>35</v>
+      </c>
+      <c r="AP87" s="16">
+        <v>36</v>
+      </c>
+      <c r="AQ87" s="16">
+        <v>37</v>
+      </c>
+      <c r="AR87" s="16">
+        <v>38</v>
+      </c>
+      <c r="AS87" s="16">
+        <v>39</v>
+      </c>
+      <c r="AT87" s="16">
+        <v>40</v>
+      </c>
+      <c r="AU87" s="16">
+        <v>41</v>
+      </c>
+      <c r="AV87" s="16">
+        <v>42</v>
+      </c>
+      <c r="AW87" s="16">
+        <v>43</v>
+      </c>
+      <c r="AX87" s="16">
+        <v>44</v>
+      </c>
+      <c r="AY87" s="16">
+        <v>45</v>
+      </c>
+      <c r="AZ87" s="16">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" spans="1:52">
+      <c r="A88" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="36">
+        <v>0</v>
+      </c>
+      <c r="C88" s="36">
+        <v>4</v>
+      </c>
+      <c r="D88" s="4"/>
+      <c r="E88" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="F88" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="G88" s="58">
+        <v>2</v>
+      </c>
+      <c r="H88" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="I88" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="J88" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="K88" s="33"/>
+      <c r="L88" s="33"/>
+      <c r="M88" s="58">
+        <v>3</v>
+      </c>
+      <c r="N88" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="O88" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="P88" s="33"/>
+      <c r="Q88" s="33"/>
+      <c r="R88" s="33"/>
+      <c r="S88" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="T88" s="33"/>
+      <c r="U88" s="33"/>
+      <c r="V88" s="33"/>
+      <c r="W88" s="33"/>
+      <c r="X88" s="33"/>
+      <c r="Y88" s="33"/>
+      <c r="Z88" s="8"/>
+      <c r="AA88" s="33"/>
+      <c r="AB88" s="33"/>
+      <c r="AC88" s="33"/>
+      <c r="AD88" s="33"/>
+      <c r="AE88" s="33"/>
+      <c r="AF88" s="33"/>
+      <c r="AG88" s="33"/>
+      <c r="AH88" s="33"/>
+      <c r="AI88" s="33"/>
+      <c r="AJ88" s="33"/>
+      <c r="AK88" s="33"/>
+      <c r="AL88" s="33"/>
+      <c r="AM88" s="33"/>
+      <c r="AN88" s="33"/>
+      <c r="AO88" s="33"/>
+      <c r="AP88" s="33"/>
+      <c r="AQ88" s="33"/>
+      <c r="AR88" s="33"/>
+      <c r="AS88" s="33"/>
+      <c r="AT88" s="33"/>
+      <c r="AU88" s="33"/>
+      <c r="AV88" s="33"/>
+      <c r="AW88" s="33"/>
+      <c r="AX88" s="33"/>
+      <c r="AY88" s="33"/>
+      <c r="AZ88" s="33"/>
+    </row>
+    <row r="89" spans="1:52">
+      <c r="A89" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="36">
+        <v>2</v>
+      </c>
+      <c r="C89" s="36">
+        <v>6</v>
+      </c>
+      <c r="D89" s="4"/>
+      <c r="E89" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="F89" s="32"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="I89" s="58">
+        <v>2</v>
+      </c>
+      <c r="J89" s="33"/>
+      <c r="K89" s="33"/>
+      <c r="L89" s="58">
+        <v>3</v>
+      </c>
+      <c r="M89" s="33"/>
+      <c r="N89" s="33"/>
+      <c r="O89" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="P89" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q89" s="33"/>
+      <c r="R89" s="33"/>
+      <c r="S89" s="33"/>
+      <c r="T89" s="58">
+        <v>4</v>
+      </c>
+      <c r="U89" s="58">
+        <v>5</v>
+      </c>
+      <c r="W89" s="33"/>
+      <c r="X89" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y89" s="33"/>
+      <c r="Z89" s="8"/>
+      <c r="AA89" s="33"/>
+      <c r="AB89" s="33"/>
+      <c r="AC89" s="33"/>
+      <c r="AD89" s="33"/>
+      <c r="AE89" s="33"/>
+      <c r="AF89" s="33"/>
+      <c r="AG89" s="33"/>
+      <c r="AH89" s="33"/>
+      <c r="AI89" s="33"/>
+      <c r="AJ89" s="33"/>
+      <c r="AK89" s="33"/>
+      <c r="AL89" s="33"/>
+      <c r="AM89" s="33"/>
+      <c r="AN89" s="33"/>
+      <c r="AO89" s="33"/>
+      <c r="AP89" s="33"/>
+      <c r="AQ89" s="33"/>
+      <c r="AR89" s="33"/>
+      <c r="AS89" s="33"/>
+      <c r="AT89" s="33"/>
+      <c r="AU89" s="33"/>
+      <c r="AV89" s="33"/>
+      <c r="AW89" s="33"/>
+      <c r="AX89" s="33"/>
+      <c r="AY89" s="33"/>
+      <c r="AZ89" s="33"/>
+    </row>
+    <row r="90" spans="1:52">
+      <c r="A90" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" s="36">
+        <v>3</v>
+      </c>
+      <c r="C90" s="36">
+        <v>4</v>
+      </c>
+      <c r="D90" s="4"/>
+      <c r="E90" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="F90" s="32"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J90" s="58">
+        <v>1</v>
+      </c>
+      <c r="K90" s="58">
+        <v>2</v>
+      </c>
+      <c r="L90" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="M90" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="N90" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="O90" s="33"/>
+      <c r="P90" s="33"/>
+      <c r="Q90" s="58">
+        <v>3</v>
+      </c>
+      <c r="R90" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="S90" s="8"/>
+      <c r="T90" s="33"/>
+      <c r="U90" s="33"/>
+      <c r="V90" s="33"/>
+      <c r="W90" s="33"/>
+      <c r="X90" s="33"/>
+      <c r="Y90" s="33"/>
+      <c r="Z90" s="8"/>
+      <c r="AA90" s="33"/>
+      <c r="AB90" s="33"/>
+      <c r="AC90" s="33"/>
+      <c r="AD90" s="33"/>
+      <c r="AE90" s="33"/>
+      <c r="AF90" s="33"/>
+      <c r="AG90" s="33"/>
+      <c r="AH90" s="33"/>
+      <c r="AI90" s="33"/>
+      <c r="AJ90" s="33"/>
+      <c r="AK90" s="33"/>
+      <c r="AL90" s="33"/>
+      <c r="AM90" s="33"/>
+      <c r="AN90" s="33"/>
+      <c r="AO90" s="33"/>
+      <c r="AP90" s="33"/>
+      <c r="AQ90" s="33"/>
+      <c r="AR90" s="33"/>
+      <c r="AS90" s="33"/>
+      <c r="AT90" s="33"/>
+      <c r="AU90" s="33"/>
+      <c r="AV90" s="33"/>
+      <c r="AW90" s="33"/>
+      <c r="AX90" s="33"/>
+      <c r="AY90" s="33"/>
+      <c r="AZ90" s="33"/>
+    </row>
+    <row r="91" spans="1:52">
+      <c r="A91" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="36">
+        <v>6</v>
+      </c>
+      <c r="C91" s="36">
+        <v>5</v>
+      </c>
+      <c r="D91" s="4"/>
+      <c r="E91" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="F91" s="32"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="33"/>
+      <c r="I91" s="33"/>
+      <c r="J91" s="33"/>
+      <c r="K91" s="33"/>
+      <c r="L91" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="M91" s="33"/>
+      <c r="N91" s="58">
+        <v>1</v>
+      </c>
+      <c r="P91" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q91" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="R91" s="53"/>
+      <c r="S91" s="8"/>
+      <c r="T91" s="33"/>
+      <c r="U91" s="33"/>
+      <c r="V91" s="58">
+        <v>2</v>
+      </c>
+      <c r="W91" s="58">
+        <v>3</v>
+      </c>
+      <c r="Y91" s="58">
+        <v>4</v>
+      </c>
+      <c r="Z91" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA91" s="33"/>
+      <c r="AB91" s="33"/>
+      <c r="AC91" s="33"/>
+      <c r="AD91" s="33"/>
+      <c r="AE91" s="33"/>
+      <c r="AF91" s="33"/>
+      <c r="AG91" s="33"/>
+      <c r="AH91" s="33"/>
+      <c r="AI91" s="33"/>
+      <c r="AJ91" s="33"/>
+      <c r="AK91" s="33"/>
+      <c r="AL91" s="33"/>
+      <c r="AM91" s="33"/>
+      <c r="AN91" s="33"/>
+      <c r="AO91" s="33"/>
+      <c r="AP91" s="33"/>
+      <c r="AQ91" s="33"/>
+      <c r="AR91" s="33"/>
+      <c r="AS91" s="33"/>
+      <c r="AT91" s="33"/>
+      <c r="AU91" s="33"/>
+      <c r="AV91" s="33"/>
+      <c r="AW91" s="33"/>
+      <c r="AX91" s="33"/>
+      <c r="AY91" s="33"/>
+      <c r="AZ91" s="33"/>
+    </row>
+    <row r="92" spans="1:52">
+      <c r="A92" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" s="36">
+        <v>8</v>
+      </c>
+      <c r="C92" s="36">
+        <v>2</v>
+      </c>
+      <c r="D92" s="4"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="33"/>
+      <c r="J92" s="33"/>
+      <c r="K92" s="33"/>
+      <c r="L92" s="33"/>
+      <c r="M92" s="33"/>
+      <c r="N92" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="O92" s="58">
+        <v>1</v>
+      </c>
+      <c r="P92" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="R92" s="33"/>
+      <c r="S92" s="33"/>
+      <c r="T92" s="33"/>
+      <c r="U92" s="33"/>
+      <c r="V92" s="33"/>
+      <c r="W92" s="33"/>
+      <c r="X92" s="33"/>
+      <c r="Y92" s="33"/>
+      <c r="AA92" s="33"/>
+      <c r="AB92" s="33"/>
+      <c r="AC92" s="33"/>
+      <c r="AD92" s="33"/>
+      <c r="AE92" s="33"/>
+      <c r="AF92" s="33"/>
+      <c r="AG92" s="33"/>
+      <c r="AH92" s="33"/>
+      <c r="AI92" s="33"/>
+      <c r="AJ92" s="33"/>
+      <c r="AK92" s="33"/>
+      <c r="AL92" s="33"/>
+      <c r="AM92" s="33"/>
+      <c r="AN92" s="33"/>
+      <c r="AO92" s="33"/>
+      <c r="AP92" s="33"/>
+      <c r="AQ92" s="33"/>
+      <c r="AR92" s="33"/>
+      <c r="AS92" s="33"/>
+      <c r="AT92" s="33"/>
+      <c r="AU92" s="33"/>
+      <c r="AV92" s="33"/>
+      <c r="AW92" s="33"/>
+      <c r="AX92" s="33"/>
+      <c r="AY92" s="33"/>
+      <c r="AZ92" s="33"/>
+    </row>
+    <row r="93" spans="1:52">
+      <c r="A93" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B93" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C93" s="36"/>
+      <c r="D93" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" s="36"/>
+      <c r="F93" s="55">
+        <v>1</v>
+      </c>
+      <c r="G93" s="33"/>
+      <c r="H93" s="33">
+        <v>2</v>
+      </c>
+      <c r="I93" s="45"/>
+      <c r="J93" s="33">
+        <v>3</v>
+      </c>
+      <c r="K93" s="73"/>
+      <c r="L93" s="33">
+        <v>2</v>
+      </c>
+      <c r="M93" s="42">
+        <v>1</v>
+      </c>
+      <c r="N93" s="33">
+        <v>4</v>
+      </c>
+      <c r="O93" s="33">
+        <v>5</v>
+      </c>
+      <c r="Q93" s="33">
+        <v>3</v>
+      </c>
+      <c r="S93" s="33">
+        <v>1</v>
+      </c>
+      <c r="T93" s="33">
+        <v>2</v>
+      </c>
+      <c r="U93" s="69"/>
+      <c r="V93" s="33">
+        <v>4</v>
+      </c>
+      <c r="W93" s="45"/>
+      <c r="X93" s="33">
+        <v>2</v>
+      </c>
+      <c r="Y93" s="42">
+        <v>4</v>
+      </c>
+      <c r="Z93" s="33"/>
+      <c r="AA93" s="33"/>
+      <c r="AB93" s="33"/>
+      <c r="AC93" s="33"/>
+      <c r="AD93" s="33"/>
+      <c r="AE93" s="33"/>
+      <c r="AF93" s="33"/>
+      <c r="AG93" s="33"/>
+      <c r="AH93" s="33"/>
+      <c r="AI93" s="33"/>
+      <c r="AJ93" s="33"/>
+      <c r="AK93" s="33"/>
+      <c r="AL93" s="33"/>
+      <c r="AM93" s="33"/>
+      <c r="AN93" s="33"/>
+      <c r="AO93" s="33"/>
+      <c r="AP93" s="33"/>
+      <c r="AQ93" s="33"/>
+      <c r="AR93" s="33"/>
+      <c r="AS93" s="33"/>
+      <c r="AT93" s="33"/>
+      <c r="AU93" s="33"/>
+      <c r="AV93" s="33"/>
+      <c r="AW93" s="33"/>
+      <c r="AX93" s="33"/>
+      <c r="AY93" s="33"/>
+      <c r="AZ93" s="33"/>
+    </row>
+    <row r="94" spans="1:52">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" s="69"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="8">
+        <v>2</v>
+      </c>
+      <c r="K94" s="7"/>
+      <c r="L94" s="8">
+        <v>1</v>
+      </c>
+      <c r="M94" s="42">
+        <v>4</v>
+      </c>
+      <c r="N94" s="41">
+        <v>5</v>
+      </c>
+      <c r="O94" s="41">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="41">
+        <v>1</v>
+      </c>
+      <c r="S94" s="8">
+        <v>2</v>
+      </c>
+      <c r="T94" s="41">
+        <v>4</v>
+      </c>
+      <c r="V94" s="8">
+        <v>2</v>
+      </c>
+      <c r="W94" s="7"/>
+      <c r="X94" s="8">
+        <v>4</v>
+      </c>
+      <c r="Y94" s="1"/>
+      <c r="Z94" s="1"/>
+      <c r="AA94" s="1"/>
+      <c r="AB94" s="1"/>
+      <c r="AC94" s="1"/>
+      <c r="AD94" s="1"/>
+      <c r="AE94" s="1"/>
+      <c r="AF94" s="1"/>
+      <c r="AG94" s="1"/>
+      <c r="AH94" s="1"/>
+      <c r="AI94" s="1"/>
+      <c r="AJ94" s="1"/>
+      <c r="AK94" s="1"/>
+      <c r="AL94" s="1"/>
+      <c r="AM94" s="1"/>
+      <c r="AN94" s="1"/>
+      <c r="AO94" s="1"/>
+      <c r="AP94" s="1"/>
+      <c r="AQ94" s="1"/>
+      <c r="AR94" s="1"/>
+      <c r="AS94" s="1"/>
+      <c r="AT94" s="1"/>
+      <c r="AU94" s="1"/>
+      <c r="AV94" s="1"/>
+      <c r="AW94" s="1"/>
+      <c r="AX94" s="1"/>
+      <c r="AY94" s="1"/>
+      <c r="AZ94" s="1"/>
+    </row>
+    <row r="95" spans="1:52">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="8">
+        <v>4</v>
+      </c>
+      <c r="M95" s="7"/>
+      <c r="N95" s="8">
+        <v>3</v>
+      </c>
+      <c r="O95" s="33">
+        <v>1</v>
+      </c>
+      <c r="Q95" s="33">
+        <v>2</v>
+      </c>
+      <c r="S95" s="8">
+        <v>4</v>
+      </c>
+      <c r="U95" s="7"/>
+      <c r="V95" s="7"/>
+      <c r="W95" s="7"/>
+      <c r="X95" s="1"/>
+      <c r="Y95" s="1"/>
+      <c r="Z95" s="1"/>
+      <c r="AA95" s="1"/>
+      <c r="AB95" s="1"/>
+      <c r="AC95" s="1"/>
+      <c r="AD95" s="1"/>
+      <c r="AE95" s="1"/>
+      <c r="AF95" s="1"/>
+      <c r="AG95" s="1"/>
+      <c r="AH95" s="1"/>
+      <c r="AI95" s="1"/>
+      <c r="AJ95" s="1"/>
+      <c r="AK95" s="1"/>
+      <c r="AL95" s="1"/>
+      <c r="AM95" s="1"/>
+      <c r="AN95" s="1"/>
+      <c r="AO95" s="1"/>
+      <c r="AP95" s="1"/>
+      <c r="AQ95" s="1"/>
+      <c r="AR95" s="1"/>
+      <c r="AS95" s="1"/>
+      <c r="AT95" s="1"/>
+      <c r="AU95" s="1"/>
+      <c r="AV95" s="1"/>
+      <c r="AW95" s="1"/>
+      <c r="AX95" s="1"/>
+      <c r="AY95" s="1"/>
+      <c r="AZ95" s="1"/>
+    </row>
+    <row r="96" spans="1:52">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="52"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="53"/>
+      <c r="N96" s="53"/>
+      <c r="O96" s="8"/>
+      <c r="P96" s="53"/>
+      <c r="Q96" s="8"/>
+      <c r="R96" s="7"/>
+      <c r="S96" s="7"/>
+      <c r="T96" s="7"/>
+      <c r="U96" s="7"/>
+      <c r="V96" s="7"/>
+      <c r="W96" s="7"/>
+      <c r="X96" s="1"/>
+      <c r="Y96" s="1"/>
+      <c r="Z96" s="1"/>
+      <c r="AA96" s="1"/>
+      <c r="AB96" s="1"/>
+      <c r="AC96" s="1"/>
+      <c r="AD96" s="1"/>
+      <c r="AE96" s="1"/>
+      <c r="AF96" s="1"/>
+      <c r="AG96" s="1"/>
+      <c r="AH96" s="1"/>
+      <c r="AI96" s="1"/>
+      <c r="AJ96" s="1"/>
+      <c r="AK96" s="1"/>
+      <c r="AL96" s="1"/>
+      <c r="AM96" s="1"/>
+      <c r="AN96" s="1"/>
+      <c r="AO96" s="1"/>
+      <c r="AP96" s="1"/>
+      <c r="AQ96" s="1"/>
+      <c r="AR96" s="1"/>
+      <c r="AS96" s="1"/>
+      <c r="AT96" s="1"/>
+      <c r="AU96" s="1"/>
+      <c r="AV96" s="1"/>
+      <c r="AW96" s="1"/>
+      <c r="AX96" s="1"/>
+      <c r="AY96" s="1"/>
+      <c r="AZ96" s="1"/>
+    </row>
+    <row r="97" spans="1:52">
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="52"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7"/>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7"/>
+      <c r="S97" s="7"/>
+      <c r="T97" s="7"/>
+      <c r="U97" s="7"/>
+      <c r="V97" s="7"/>
+      <c r="W97" s="7"/>
+      <c r="X97" s="1"/>
+      <c r="Y97" s="1"/>
+      <c r="Z97" s="1"/>
+      <c r="AA97" s="1"/>
+      <c r="AB97" s="1"/>
+      <c r="AC97" s="1"/>
+      <c r="AD97" s="1"/>
+      <c r="AE97" s="1"/>
+      <c r="AF97" s="1"/>
+      <c r="AG97" s="1"/>
+      <c r="AH97" s="1"/>
+      <c r="AI97" s="1"/>
+      <c r="AJ97" s="1"/>
+      <c r="AK97" s="1"/>
+      <c r="AL97" s="1"/>
+      <c r="AM97" s="1"/>
+      <c r="AN97" s="1"/>
+      <c r="AO97" s="1"/>
+      <c r="AP97" s="1"/>
+      <c r="AQ97" s="1"/>
+      <c r="AR97" s="1"/>
+      <c r="AS97" s="1"/>
+      <c r="AT97" s="1"/>
+      <c r="AU97" s="1"/>
+      <c r="AV97" s="1"/>
+      <c r="AW97" s="1"/>
+      <c r="AX97" s="1"/>
+      <c r="AY97" s="1"/>
+      <c r="AZ97" s="1"/>
+    </row>
+    <row r="98" spans="1:52">
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
+      <c r="AB98" s="1"/>
+      <c r="AC98" s="1"/>
+      <c r="AD98" s="1"/>
+      <c r="AE98" s="1"/>
+      <c r="AF98" s="1"/>
+      <c r="AG98" s="1"/>
+      <c r="AH98" s="1"/>
+      <c r="AI98" s="1"/>
+      <c r="AJ98" s="1"/>
+      <c r="AK98" s="1"/>
+      <c r="AL98" s="1"/>
+      <c r="AM98" s="1"/>
+      <c r="AN98" s="1"/>
+      <c r="AO98" s="1"/>
+      <c r="AP98" s="1"/>
+      <c r="AQ98" s="1"/>
+      <c r="AR98" s="1"/>
+      <c r="AS98" s="1"/>
+      <c r="AT98" s="1"/>
+      <c r="AU98" s="1"/>
+      <c r="AV98" s="1"/>
+      <c r="AW98" s="1"/>
+      <c r="AX98" s="1"/>
+      <c r="AY98" s="1"/>
+      <c r="AZ98" s="1"/>
+    </row>
+    <row r="99" spans="1:52" ht="15.75" thickBot="1">
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
+      <c r="Z99" s="1"/>
+      <c r="AA99" s="1"/>
+      <c r="AB99" s="1"/>
+      <c r="AC99" s="1"/>
+      <c r="AD99" s="1"/>
+      <c r="AE99" s="1"/>
+      <c r="AF99" s="1"/>
+      <c r="AG99" s="1"/>
+      <c r="AH99" s="1"/>
+      <c r="AI99" s="1"/>
+      <c r="AJ99" s="1"/>
+      <c r="AK99" s="1"/>
+      <c r="AL99" s="1"/>
+      <c r="AM99" s="1"/>
+      <c r="AN99" s="1"/>
+      <c r="AO99" s="1"/>
+      <c r="AP99" s="1"/>
+      <c r="AQ99" s="1"/>
+      <c r="AR99" s="1"/>
+      <c r="AS99" s="1"/>
+      <c r="AT99" s="1"/>
+      <c r="AU99" s="1"/>
+      <c r="AV99" s="1"/>
+      <c r="AW99" s="1"/>
+      <c r="AX99" s="1"/>
+      <c r="AY99" s="1"/>
+      <c r="AZ99" s="1"/>
+    </row>
+    <row r="100" spans="1:52">
+      <c r="A100" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F100" s="56"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+      <c r="Y100" s="1"/>
+      <c r="Z100" s="1"/>
+      <c r="AA100" s="1"/>
+      <c r="AB100" s="1"/>
+      <c r="AC100" s="1"/>
+      <c r="AD100" s="1"/>
+      <c r="AE100" s="1"/>
+      <c r="AF100" s="1"/>
+      <c r="AG100" s="1"/>
+      <c r="AH100" s="1"/>
+      <c r="AI100" s="1"/>
+      <c r="AJ100" s="1"/>
+      <c r="AK100" s="1"/>
+      <c r="AL100" s="1"/>
+      <c r="AM100" s="1"/>
+      <c r="AN100" s="1"/>
+      <c r="AO100" s="1"/>
+      <c r="AP100" s="1"/>
+      <c r="AQ100" s="1"/>
+      <c r="AR100" s="1"/>
+      <c r="AS100" s="1"/>
+      <c r="AT100" s="1"/>
+      <c r="AU100" s="1"/>
+      <c r="AV100" s="1"/>
+      <c r="AW100" s="1"/>
+      <c r="AX100" s="1"/>
+      <c r="AY100" s="1"/>
+      <c r="AZ100" s="1"/>
+    </row>
+    <row r="101" spans="1:52">
+      <c r="A101" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="8">
+        <v>11</v>
+      </c>
+      <c r="C101" s="8">
+        <v>15</v>
+      </c>
+      <c r="D101" s="8">
+        <v>12</v>
+      </c>
+      <c r="E101" s="31">
+        <v>7.8</v>
+      </c>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
+      <c r="Y101" s="1"/>
+      <c r="Z101" s="1"/>
+      <c r="AA101" s="1"/>
+      <c r="AB101" s="1"/>
+      <c r="AC101" s="1"/>
+      <c r="AD101" s="1"/>
+      <c r="AE101" s="1"/>
+      <c r="AF101" s="1"/>
+      <c r="AG101" s="1"/>
+      <c r="AH101" s="1"/>
+      <c r="AI101" s="1"/>
+      <c r="AJ101" s="1"/>
+      <c r="AK101" s="1"/>
+      <c r="AL101" s="1"/>
+      <c r="AM101" s="1"/>
+      <c r="AN101" s="1"/>
+      <c r="AO101" s="1"/>
+      <c r="AP101" s="1"/>
+      <c r="AQ101" s="1"/>
+      <c r="AR101" s="1"/>
+      <c r="AS101" s="1"/>
+      <c r="AT101" s="1"/>
+      <c r="AU101" s="1"/>
+      <c r="AV101" s="1"/>
+      <c r="AW101" s="1"/>
+      <c r="AX101" s="1"/>
+      <c r="AY101" s="1"/>
+      <c r="AZ101" s="1"/>
+    </row>
+    <row r="102" spans="1:52">
+      <c r="A102" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" s="8">
+        <v>4</v>
+      </c>
+      <c r="C102" s="8">
+        <v>10</v>
+      </c>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+      <c r="Y102" s="1"/>
+      <c r="Z102" s="1"/>
+      <c r="AA102" s="1"/>
+      <c r="AB102" s="1"/>
+      <c r="AC102" s="1"/>
+      <c r="AD102" s="1"/>
+      <c r="AE102" s="1"/>
+      <c r="AF102" s="1"/>
+      <c r="AG102" s="1"/>
+      <c r="AH102" s="1"/>
+      <c r="AI102" s="1"/>
+      <c r="AJ102" s="1"/>
+      <c r="AK102" s="1"/>
+      <c r="AL102" s="1"/>
+      <c r="AM102" s="1"/>
+      <c r="AN102" s="1"/>
+      <c r="AO102" s="1"/>
+      <c r="AP102" s="1"/>
+      <c r="AQ102" s="1"/>
+      <c r="AR102" s="1"/>
+      <c r="AS102" s="1"/>
+      <c r="AT102" s="1"/>
+      <c r="AU102" s="1"/>
+      <c r="AV102" s="1"/>
+      <c r="AW102" s="1"/>
+      <c r="AX102" s="1"/>
+      <c r="AY102" s="1"/>
+      <c r="AZ102" s="1"/>
+    </row>
+    <row r="103" spans="1:52" ht="15.75" thickBot="1">
+      <c r="A103" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" s="22">
+        <v>10</v>
+      </c>
+      <c r="C103" s="27">
+        <v>14</v>
+      </c>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+      <c r="X103" s="1"/>
+      <c r="Y103" s="1"/>
+      <c r="Z103" s="1"/>
+      <c r="AA103" s="1"/>
+      <c r="AB103" s="1"/>
+      <c r="AC103" s="1"/>
+      <c r="AD103" s="1"/>
+      <c r="AE103" s="1"/>
+      <c r="AF103" s="1"/>
+      <c r="AG103" s="1"/>
+      <c r="AH103" s="1"/>
+      <c r="AI103" s="1"/>
+      <c r="AJ103" s="1"/>
+      <c r="AK103" s="1"/>
+      <c r="AL103" s="1"/>
+      <c r="AM103" s="1"/>
+      <c r="AN103" s="1"/>
+      <c r="AO103" s="1"/>
+      <c r="AP103" s="1"/>
+      <c r="AQ103" s="1"/>
+      <c r="AR103" s="1"/>
+      <c r="AS103" s="1"/>
+      <c r="AT103" s="1"/>
+      <c r="AU103" s="1"/>
+      <c r="AV103" s="1"/>
+      <c r="AW103" s="1"/>
+      <c r="AX103" s="1"/>
+      <c r="AY103" s="1"/>
+      <c r="AZ103" s="1"/>
+    </row>
+    <row r="104" spans="1:52">
+      <c r="A104" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" s="30">
+        <v>10</v>
+      </c>
+      <c r="C104" s="30">
+        <v>15</v>
+      </c>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+      <c r="X104" s="1"/>
+      <c r="Y104" s="1"/>
+      <c r="Z104" s="1"/>
+      <c r="AA104" s="1"/>
+      <c r="AB104" s="1"/>
+      <c r="AC104" s="1"/>
+      <c r="AD104" s="1"/>
+      <c r="AE104" s="1"/>
+      <c r="AF104" s="1"/>
+      <c r="AG104" s="1"/>
+      <c r="AH104" s="1"/>
+      <c r="AI104" s="1"/>
+      <c r="AJ104" s="1"/>
+      <c r="AK104" s="1"/>
+      <c r="AL104" s="1"/>
+      <c r="AM104" s="1"/>
+      <c r="AN104" s="1"/>
+      <c r="AO104" s="1"/>
+      <c r="AP104" s="1"/>
+      <c r="AQ104" s="1"/>
+      <c r="AR104" s="1"/>
+      <c r="AS104" s="1"/>
+      <c r="AT104" s="1"/>
+      <c r="AU104" s="1"/>
+      <c r="AV104" s="1"/>
+      <c r="AW104" s="1"/>
+      <c r="AX104" s="1"/>
+      <c r="AY104" s="1"/>
+      <c r="AZ104" s="1"/>
+    </row>
+    <row r="105" spans="1:52" ht="15.75" thickBot="1">
+      <c r="A105" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" s="27">
+        <v>4</v>
+      </c>
+      <c r="C105" s="27">
+        <v>6</v>
+      </c>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
+      <c r="Y105" s="1"/>
+      <c r="Z105" s="1"/>
+      <c r="AA105" s="1"/>
+      <c r="AB105" s="1"/>
+      <c r="AC105" s="1"/>
+      <c r="AD105" s="1"/>
+      <c r="AE105" s="1"/>
+      <c r="AF105" s="1"/>
+      <c r="AG105" s="1"/>
+      <c r="AH105" s="1"/>
+      <c r="AI105" s="1"/>
+      <c r="AJ105" s="1"/>
+      <c r="AK105" s="1"/>
+      <c r="AL105" s="1"/>
+      <c r="AM105" s="1"/>
+      <c r="AN105" s="1"/>
+      <c r="AO105" s="1"/>
+      <c r="AP105" s="1"/>
+      <c r="AQ105" s="1"/>
+      <c r="AR105" s="1"/>
+      <c r="AS105" s="1"/>
+      <c r="AT105" s="1"/>
+      <c r="AU105" s="1"/>
+      <c r="AV105" s="1"/>
+      <c r="AW105" s="1"/>
+      <c r="AX105" s="1"/>
+      <c r="AY105" s="1"/>
+      <c r="AZ105" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
